--- a/notebooks/assets/test_random_selection/kerasnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test_random_selection/kerasnh3_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.036</v>
+        <v>3.073</v>
       </c>
       <c r="C2" t="n">
-        <v>2.055</v>
+        <v>1.913</v>
       </c>
       <c r="D2" t="n">
-        <v>5.156</v>
+        <v>3.421</v>
       </c>
       <c r="E2" t="n">
-        <v>6.068</v>
+        <v>2.847</v>
       </c>
       <c r="F2" t="n">
-        <v>2.852</v>
+        <v>1.573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.768</v>
+        <v>4.538</v>
       </c>
       <c r="C3" t="n">
-        <v>13.438</v>
+        <v>3.306</v>
       </c>
       <c r="D3" t="n">
-        <v>61.297</v>
+        <v>4.607</v>
       </c>
       <c r="E3" t="n">
-        <v>81.571</v>
+        <v>4.147</v>
       </c>
       <c r="F3" t="n">
-        <v>23.097</v>
+        <v>2.198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9379999999999999</v>
+        <v>22.51</v>
       </c>
       <c r="C4" t="n">
-        <v>0.768</v>
+        <v>11.229</v>
       </c>
       <c r="D4" t="n">
-        <v>0.779</v>
+        <v>21.756</v>
       </c>
       <c r="E4" t="n">
-        <v>0.823</v>
+        <v>20.13</v>
       </c>
       <c r="F4" t="n">
-        <v>0.835</v>
+        <v>4.999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.253</v>
+        <v>0.946</v>
       </c>
       <c r="C5" t="n">
-        <v>4.56</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>11.334</v>
+        <v>0.908</v>
       </c>
       <c r="E5" t="n">
-        <v>11.259</v>
+        <v>0.956</v>
       </c>
       <c r="F5" t="n">
-        <v>5.461</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135.675</v>
+        <v>9.253</v>
       </c>
       <c r="C6" t="n">
-        <v>43.816</v>
+        <v>4.56</v>
       </c>
       <c r="D6" t="n">
-        <v>257.91</v>
+        <v>11.334</v>
       </c>
       <c r="E6" t="n">
-        <v>306.085</v>
+        <v>11.259</v>
       </c>
       <c r="F6" t="n">
-        <v>67.69499999999999</v>
+        <v>5.461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.641</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.831</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.476</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>135.675</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.816</v>
+      </c>
+      <c r="D8" t="n">
+        <v>257.91</v>
+      </c>
+      <c r="E8" t="n">
+        <v>306.085</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67.69499999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.6919999999999999</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>0.254</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.058</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.342</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>0.631</v>
       </c>
     </row>
